--- a/experiment_results/SBFL_ONLY/Summary/All/multiple_bugs_all.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/All/multiple_bugs_all.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03047220283786929</v>
+        <v>0.0304509530450953</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1223540358222845</v>
+        <v>0.1222687122268712</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1972551756222375</v>
+        <v>0.1971176197117621</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2501744591765518</v>
+        <v>0.2501743375174336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3149569667364492</v>
+        <v>0.3149116689911666</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06769016050244243</v>
+        <v>0.06764295676429567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2707606420097697</v>
+        <v>0.2705718270571827</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4180041870202373</v>
+        <v>0.4177126917712692</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4989532449406839</v>
+        <v>0.499302649930265</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5931612002791347</v>
+        <v>0.5934449093444909</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.515003489183531</v>
+        <v>6.513249651324965</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>102.9672016748081</v>
+        <v>102.9093444909344</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07269132356361939</v>
+        <v>0.07264063226406324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2203419399860423</v>
+        <v>0.2204788470478848</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3640381484066056</v>
+        <v>0.3640748489074845</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4353337985578083</v>
+        <v>0.4354951185495116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4869737148174033</v>
+        <v>0.4870990237099024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1577110956036288</v>
+        <v>0.1576011157601116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4842986741102582</v>
+        <v>0.4846582984658299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7955338450802513</v>
+        <v>0.795676429567643</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8834612700628053</v>
+        <v>0.8835425383542538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9148639218422889</v>
+        <v>0.9149232914923291</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.45778087927425</v>
+        <v>3.45676429567643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>101.8981158408932</v>
+        <v>101.8465829846583</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07344731332868103</v>
+        <v>0.07339609483960949</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2209816236334022</v>
+        <v>0.2211180846118086</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3647359851128164</v>
+        <v>0.3647721989772195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.436206094440572</v>
+        <v>0.4363668061366804</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.484298674110262</v>
+        <v>0.4844258484425847</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.159804605722261</v>
+        <v>0.1596931659693166</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4856943475226797</v>
+        <v>0.4860529986052999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7955338450802513</v>
+        <v>0.795676429567643</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.881367759944173</v>
+        <v>0.8814504881450488</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9078855547801814</v>
+        <v>0.9079497907949791</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.521284019539428</v>
+        <v>3.520223152022315</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>95.91277041172366</v>
+        <v>95.86401673640168</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07222609909281223</v>
+        <v>0.07217573221757322</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2195859502209807</v>
+        <v>0.2197233844723386</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3621772505233767</v>
+        <v>0.3622152487215246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4299255640846751</v>
+        <v>0.4300906555090653</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4779018376366629</v>
+        <v>0.4780334728033471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1563154221912073</v>
+        <v>0.1562064156206416</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4822051639916259</v>
+        <v>0.4825662482566248</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7892533147243544</v>
+        <v>0.7894002789400278</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8674110258199581</v>
+        <v>0.8675034867503487</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8932309839497558</v>
+        <v>0.893305439330544</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.321004884856944</v>
+        <v>6.317991631799163</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>130.9050942079553</v>
+        <v>130.8305439330544</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07222609909281223</v>
+        <v>0.07217573221757322</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2195859502209807</v>
+        <v>0.2197233844723386</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3621772505233767</v>
+        <v>0.3622152487215246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4299255640846751</v>
+        <v>0.4300906555090653</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4779018376366629</v>
+        <v>0.4780334728033471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1563154221912073</v>
+        <v>0.1562064156206416</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4822051639916259</v>
+        <v>0.4825662482566248</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7892533147243544</v>
+        <v>0.7894002789400278</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8674110258199581</v>
+        <v>0.8675034867503487</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8932309839497558</v>
+        <v>0.893305439330544</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.321004884856944</v>
+        <v>6.317991631799163</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>130.9050942079553</v>
+        <v>130.8305439330544</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07461037450569892</v>
+        <v>0.07455834495583449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2228425215166307</v>
+        <v>0.2229776847977686</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.368050709467318</v>
+        <v>0.3680846118084608</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4340544312630889</v>
+        <v>0.4340423059042303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.485926959758087</v>
+        <v>0.4860529986052997</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1632937892533147</v>
+        <v>0.1631799163179916</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4905792044661549</v>
+        <v>0.4909344490934449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8025122121423587</v>
+        <v>0.802649930264993</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8918353105373342</v>
+        <v>0.8919107391910739</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9239357990230286</v>
+        <v>0.9239888423988842</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.277041172365666</v>
+        <v>3.276150627615063</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>96.82693649685973</v>
+        <v>96.78033472803347</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04768550825773434</v>
+        <v>0.04765225476522549</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1488136775994422</v>
+        <v>0.1490004649000465</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.263665968829959</v>
+        <v>0.2637726638772663</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3071644568504288</v>
+        <v>0.3072408182240817</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3305419865084883</v>
+        <v>0.3306020455602044</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1060711793440335</v>
+        <v>0.1059972105997211</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3265875785066295</v>
+        <v>0.3270571827057183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5826936496859735</v>
+        <v>0.5829846582984658</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6685275645498954</v>
+        <v>0.6687587168758717</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7069085833914864</v>
+        <v>0.7071129707112971</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.478715980460573</v>
+        <v>5.476290097629009</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>116.9113747383112</v>
+        <v>116.8960948396095</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00709467317980926</v>
+        <v>0.007089725708972571</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.03442661083973021</v>
+        <v>0.03440260344026035</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.07362177250523358</v>
+        <v>0.07357043235704322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.09676668992789032</v>
+        <v>0.09669920966992096</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.01535240753663643</v>
+        <v>0.01534170153417015</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.07606420097697139</v>
+        <v>0.07601115760111576</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1646894626657362</v>
+        <v>0.1645746164574617</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.209351011863224</v>
+        <v>0.2092050209205021</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>16.98743893928821</v>
+        <v>16.9860529986053</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>129.1577110956036</v>
+        <v>129.1359832635983</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07269132356361939</v>
+        <v>0.07264063226406324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2203419399860423</v>
+        <v>0.2204788470478848</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3640381484066056</v>
+        <v>0.3640748489074845</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4353337985578083</v>
+        <v>0.4354951185495116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4869737148174033</v>
+        <v>0.4870990237099024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1577110956036288</v>
+        <v>0.1576011157601116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4842986741102582</v>
+        <v>0.4846582984658299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7955338450802513</v>
+        <v>0.795676429567643</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8834612700628053</v>
+        <v>0.8835425383542538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9148639218422889</v>
+        <v>0.9149232914923291</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.45778087927425</v>
+        <v>3.45676429567643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>101.8981158408932</v>
+        <v>101.8465829846583</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07269132356361939</v>
+        <v>0.07264063226406324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2203419399860423</v>
+        <v>0.2204788470478848</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3640381484066056</v>
+        <v>0.3640748489074845</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4353337985578083</v>
+        <v>0.4354951185495116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4869737148174033</v>
+        <v>0.4870990237099024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1577110956036288</v>
+        <v>0.1576011157601116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4842986741102582</v>
+        <v>0.4846582984658299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7955338450802513</v>
+        <v>0.795676429567643</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8834612700628053</v>
+        <v>0.8835425383542538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9148639218422889</v>
+        <v>0.9149232914923291</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.45778087927425</v>
+        <v>3.45676429567643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>101.8981158408932</v>
+        <v>101.8465829846583</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07461037450569892</v>
+        <v>0.07455834495583449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2219120725750164</v>
+        <v>0.2220478847047886</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3703768318213539</v>
+        <v>0.3704091120409109</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4348685740870011</v>
+        <v>0.4348558809855878</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4844149802279638</v>
+        <v>0.4845420734542073</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1632937892533147</v>
+        <v>0.1631799163179916</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4884856943475227</v>
+        <v>0.4888423988842399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8080949057920447</v>
+        <v>0.8082287308228731</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8974180041870202</v>
+        <v>0.897489539748954</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9232379623168179</v>
+        <v>0.9232914923291492</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.245638520586183</v>
+        <v>3.244769874476988</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>103.0139567341242</v>
+        <v>102.9679218967922</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03372877413351942</v>
+        <v>0.03370525337052534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09077692486624793</v>
+        <v>0.09088795908879589</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2136543382181893</v>
+        <v>0.2136796838679685</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2812863456617805</v>
+        <v>0.2813807531380751</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3257152826238642</v>
+        <v>0.3259530450953042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.07606420097697139</v>
+        <v>0.07601115760111576</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2030704815073273</v>
+        <v>0.203626220362622</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4717376133984648</v>
+        <v>0.4721059972105997</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6022330774598744</v>
+        <v>0.602510460251046</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.672016748080949</v>
+        <v>0.6722454672245467</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.178646196789951</v>
+        <v>6.175732217573222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>107.1660851360782</v>
+        <v>107.1276150627615</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0698418236799255</v>
+        <v>0.06979311947931195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1955105838567109</v>
+        <v>0.1956648070664808</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3604326587578494</v>
+        <v>0.3604718735471871</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.42440102349384</v>
+        <v>0.4243956299395625</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4695277971621345</v>
+        <v>0.469665271966527</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1528262386601535</v>
+        <v>0.1527196652719665</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4312630844382415</v>
+        <v>0.4316596931659693</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7885554780181437</v>
+        <v>0.7887029288702929</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8904396371249128</v>
+        <v>0.8905160390516039</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9232379623168179</v>
+        <v>0.9232914923291492</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.248429867411026</v>
+        <v>3.247559274755928</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>117.3042568039079</v>
+        <v>117.2468619246862</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07117934403349604</v>
+        <v>0.07112970711297072</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2123168178646188</v>
+        <v>0.2124593212459323</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3596766689927876</v>
+        <v>0.3597164109716408</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4228890439637165</v>
+        <v>0.4228847047884702</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4620842056292201</v>
+        <v>0.4620525337052532</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1556175854849965</v>
+        <v>0.1555090655509065</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4682484298674111</v>
+        <v>0.4686192468619247</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.787857641311933</v>
+        <v>0.7880055788005579</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8834612700628053</v>
+        <v>0.8835425383542538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9134682484298674</v>
+        <v>0.9135285913528591</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.085136078157711</v>
+        <v>6.082287308228731</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>137.6943475226797</v>
+        <v>137.6220362622036</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07269132356361939</v>
+        <v>0.07264063226406324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2203419399860423</v>
+        <v>0.2204788470478848</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3640381484066056</v>
+        <v>0.3640748489074845</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4353337985578083</v>
+        <v>0.4354951185495116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4869737148174033</v>
+        <v>0.4870990237099024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1577110956036288</v>
+        <v>0.1576011157601116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4842986741102582</v>
+        <v>0.4846582984658299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7955338450802513</v>
+        <v>0.795676429567643</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8834612700628053</v>
+        <v>0.8835425383542538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9148639218422889</v>
+        <v>0.9149232914923291</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.45778087927425</v>
+        <v>3.45676429567643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>101.8981158408932</v>
+        <v>101.8465829846583</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07269132356361939</v>
+        <v>0.07264063226406324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2203419399860423</v>
+        <v>0.2204788470478848</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3640381484066056</v>
+        <v>0.3640748489074845</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4353337985578083</v>
+        <v>0.4354951185495116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4869737148174033</v>
+        <v>0.4870990237099024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1577110956036288</v>
+        <v>0.1576011157601116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4842986741102582</v>
+        <v>0.4846582984658299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7955338450802513</v>
+        <v>0.795676429567643</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8834612700628053</v>
+        <v>0.8835425383542538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9148639218422889</v>
+        <v>0.9149232914923291</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.45778087927425</v>
+        <v>3.45676429567643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>101.8981158408932</v>
+        <v>101.8465829846583</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0698418236799255</v>
+        <v>0.06979311947931195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1955105838567109</v>
+        <v>0.1956648070664808</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3604326587578494</v>
+        <v>0.3604718735471871</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.42440102349384</v>
+        <v>0.4243956299395625</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4691788788090291</v>
+        <v>0.4693165969316596</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1528262386601535</v>
+        <v>0.1527196652719665</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4312630844382415</v>
+        <v>0.4316596931659693</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7885554780181437</v>
+        <v>0.7887029288702929</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8904396371249128</v>
+        <v>0.8905160390516039</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9232379623168179</v>
+        <v>0.9232914923291492</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.248429867411026</v>
+        <v>3.247559274755928</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>98.82903000697837</v>
+        <v>98.78451882845188</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01337520353570598</v>
+        <v>0.01336587633658763</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.05222144684810424</v>
+        <v>0.05218503021850303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1099092812281928</v>
+        <v>0.1098326359832636</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.140497790183764</v>
+        <v>0.1403998140399814</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1659688299604562</v>
+        <v>0.1658530915853092</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02791346824842987</v>
+        <v>0.02789400278940028</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2372644801116539</v>
+        <v>0.2370990237099024</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.3063503140265178</v>
+        <v>0.3061366806136681</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.3475226796929519</v>
+        <v>0.3472803347280335</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.33426378227495</v>
+        <v>10.33612273361227</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>91.47103977669225</v>
+        <v>91.47489539748953</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06856245638520581</v>
+        <v>0.06851464435146444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1786461967899518</v>
+        <v>0.1788121803812181</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3412421493370533</v>
+        <v>0.3412947466294745</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.401953942777393</v>
+        <v>0.4019642026964199</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4346359618515975</v>
+        <v>0.4346234309623427</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1500348918353105</v>
+        <v>0.1499302649930265</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3907885554780182</v>
+        <v>0.3912133891213389</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7480809490579204</v>
+        <v>0.7482566248256625</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8555478018143754</v>
+        <v>0.8556485355648535</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8918353105373342</v>
+        <v>0.8919107391910739</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.958827634333566</v>
+        <v>3.957461645746164</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>108.4012561060712</v>
+        <v>108.3793584379358</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03047220283786929</v>
+        <v>0.0304509530450953</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1214235868806702</v>
+        <v>0.1213389121338912</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1963247266806231</v>
+        <v>0.1961878196187821</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2498255408234464</v>
+        <v>0.2498256624825661</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3140265177948349</v>
+        <v>0.3139818688981866</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06769016050244243</v>
+        <v>0.06764295676429567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2686671318911375</v>
+        <v>0.2684797768479777</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.415910676901605</v>
+        <v>0.4156206415620641</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4982554082344731</v>
+        <v>0.49860529986053</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5917655268667132</v>
+        <v>0.5920502092050209</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.524773203070482</v>
+        <v>6.523012552301255</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>102.9706908583392</v>
+        <v>102.9128312412831</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07269132356361936</v>
+        <v>0.07264063226406323</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2199930216329368</v>
+        <v>0.2201301720130173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3652593626424744</v>
+        <v>0.3652952115295208</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4292858804373148</v>
+        <v>0.4294514179451414</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4713886950453632</v>
+        <v>0.471524872152487</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1584089323098395</v>
+        <v>0.1582984658298466</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4836008374040475</v>
+        <v>0.4839609483960948</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7990230286113049</v>
+        <v>0.799163179916318</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8946266573621773</v>
+        <v>0.8947001394700139</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9197487787857641</v>
+        <v>0.9198047419804742</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.422889043963712</v>
+        <v>3.421896792189679</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>106.6427076064201</v>
+        <v>106.6108786610879</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00709467317980926</v>
+        <v>0.007089725708972571</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.03442661083973021</v>
+        <v>0.03440260344026035</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.07362177250523358</v>
+        <v>0.07357043235704322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.09676668992789032</v>
+        <v>0.09669920966992096</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.01535240753663643</v>
+        <v>0.01534170153417015</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.07606420097697139</v>
+        <v>0.07601115760111576</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1646894626657362</v>
+        <v>0.1645746164574617</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.209351011863224</v>
+        <v>0.2092050209205021</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>16.98743893928821</v>
+        <v>16.9860529986053</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>129.1577110956036</v>
+        <v>129.1359832635983</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05065131425913002</v>
+        <v>0.05061599256159927</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1224703419399863</v>
+        <v>0.1225011622501163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2494184694114893</v>
+        <v>0.2493607624360762</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2976855082577328</v>
+        <v>0.2977684797768478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3152477320307037</v>
+        <v>0.3153184565318455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1123517096999302</v>
+        <v>0.1122733612273361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2777390090718772</v>
+        <v>0.2775453277545328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5505931612002791</v>
+        <v>0.5502092050209205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6350314026517795</v>
+        <v>0.6352859135285913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6454989532449407</v>
+        <v>0.6457461645746164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>37.79344033496162</v>
+        <v>37.76987447698745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.404047452896</v>
+        <v>235.278940027894</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0587345894394044</v>
+        <v>0.05869363086936309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1877762270295419</v>
+        <v>0.1879358437935845</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3249592928588027</v>
+        <v>0.3250232450023243</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3767736682949516</v>
+        <v>0.3768014876801485</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4064317283089117</v>
+        <v>0.4064388656438864</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1304954640614096</v>
+        <v>0.1304044630404463</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4166085136078158</v>
+        <v>0.4170153417015341</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7131891137473831</v>
+        <v>0.7133891213389121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8025122121423587</v>
+        <v>0.802649930264993</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8450802512212142</v>
+        <v>0.8451882845188284</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.753663642707607</v>
+        <v>5.751046025104602</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>134.702023726448</v>
+        <v>134.6457461645746</v>
       </c>
     </row>
   </sheetData>
